--- a/TeamInfo.xlsx
+++ b/TeamInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\Fall Semester 2020\Computer Systems\CSI-2334-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7852B-1EE9-43C8-AC6C-B04DACF555FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35F2B4-1A0E-4B93-9646-4F628BC98AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{F91D2B6C-2FF3-4BF8-B3C3-B6F5C0834993}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Team Name:</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>1st Project Report</t>
+  </si>
+  <si>
+    <t>Formative Assessment</t>
   </si>
 </sst>
 </file>
@@ -150,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -162,6 +165,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3CB09E-0CC1-4CF5-AEFB-9514F3FEFF7F}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -565,6 +572,17 @@
         <v>8</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TeamInfo.xlsx
+++ b/TeamInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Desktop\Fall Semester 2020\Computer Systems\CSI-2334-Group-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35F2B4-1A0E-4B93-9646-4F628BC98AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAD0867-7202-41C5-9AAF-FCADA7DEF832}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{F91D2B6C-2FF3-4BF8-B3C3-B6F5C0834993}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Team Name:</t>
   </si>
@@ -67,13 +67,19 @@
   </si>
   <si>
     <t>Formative Assessment</t>
+  </si>
+  <si>
+    <t>Check List</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +91,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -149,13 +169,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -171,6 +205,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3CB09E-0CC1-4CF5-AEFB-9514F3FEFF7F}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -497,91 +535,109 @@
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
